--- a/account_nv.xlsx
+++ b/account_nv.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,10 +412,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>pt_cs4</v>
+        <v>yki2k</v>
       </c>
       <c r="B2" t="str">
-        <v>dlatldn123!</v>
+        <v>zmfpdlwl94@</v>
       </c>
     </row>
     <row r="3">
@@ -442,9 +442,17 @@
         <v>dlatldn123!</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>pt_cs4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>dlatldn123!</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
   </ignoredErrors>
 </worksheet>
 </file>